--- a/Monitoring Hujan Alat Otomatis Tanggal 26-04-2024.xlsx
+++ b/Monitoring Hujan Alat Otomatis Tanggal 26-04-2024.xlsx
@@ -771,7 +771,7 @@
       </c>
       <c r="E10" s="11" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="F10" s="5" t="inlineStr">
